--- a/checklists_clean/2024-25-Panini-Revolution-Basketball-Checklist.xlsx
+++ b/checklists_clean/2024-25-Panini-Revolution-Basketball-Checklist.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fyrex/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fyrex/antiGravityCode/checklists_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58125F5-808B-DD43-A5CE-14743218276D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883389E2-5A48-7240-A2D7-ECE13BFCFB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25740" yWindow="1880" windowWidth="15980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Teams" sheetId="5" r:id="rId1"/>
+    <sheet name="Teams_clean" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
